--- a/Record/ExcelTest/bin/Debug/net5.0/TestData.xlsx
+++ b/Record/ExcelTest/bin/Debug/net5.0/TestData.xlsx
@@ -19,26 +19,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>E1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
   </si>
 </sst>
 </file>
@@ -363,52 +423,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
